--- a/biology/Botanique/Fourchette_à_pomme_de_terre/Fourchette_à_pomme_de_terre.xlsx
+++ b/biology/Botanique/Fourchette_à_pomme_de_terre/Fourchette_à_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fourchette_%C3%A0_pomme_de_terre</t>
+          <t>Fourchette_à_pomme_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fourchette à pomme de terre, ou pique à pomme de terre, est un ustensile de cuisine qui permet de saisir une pomme de terre en robe des champs, cuite et encore chaude, afin de l'éplucher sans se brûler et sans risquer de faire éclater le tubercule.
 Cet ustensile compte généralement trois dents seulement, non alignées, pour éviter de fendre la chair de la pomme de terre, comme le ferait une fourchette classique.
